--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliak\IdeaProjects\Cybertek24-cucumber-junit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bc8a4f3f6d99fde/Desktop/Cydeo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A8755D-6744-4D1E-8BDA-F21D512DB6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{EDD539CF-689A-4D3E-9517-6FE185A694CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57563F98-2018-4A6B-AF24-B65608695DC7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2AD2E49-2199-4CB0-A020-42E30906A91A}"/>
+    <workbookView xWindow="3996" yWindow="900" windowWidth="17280" windowHeight="8976" xr2:uid="{F2AD2E49-2199-4CB0-A020-42E30906A91A}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>JobTitle</t>
   </si>
@@ -54,46 +54,59 @@
     <t>LastName</t>
   </si>
   <si>
+    <t>Fahima</t>
+  </si>
+  <si>
+    <t>Eldarat</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
     <t>Feyruz</t>
   </si>
   <si>
-    <t>Shahmuradov</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janina </t>
+    <t>Sham</t>
+  </si>
+  <si>
+    <t>QA Lead</t>
+  </si>
+  <si>
+    <t>Janina</t>
   </si>
   <si>
     <t>Romanenko</t>
   </si>
   <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masha </t>
+  </si>
+  <si>
+    <t>Priimak</t>
+  </si>
+  <si>
     <t>CFO</t>
   </si>
   <si>
-    <t>Masha</t>
-  </si>
-  <si>
-    <t>Priimak</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>Fadima</t>
-  </si>
-  <si>
-    <t>Eldarat</t>
-  </si>
-  <si>
-    <t>Developer</t>
+    <t>Abdulahi</t>
+  </si>
+  <si>
+    <t>Jama</t>
+  </si>
+  <si>
+    <t>Co-founder</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,17 +452,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD613D-04CD-4467-AC89-42E14A634B76}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,6 +475,9 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -473,6 +489,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>111000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -484,6 +503,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>120000.0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -495,6 +517,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="n">
+        <v>150000.0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -516,6 +541,17 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
